--- a/Planilhas/Testes de Avaliação do Classificador.xlsx
+++ b/Planilhas/Testes de Avaliação do Classificador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LabDataScience\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433A029-A90E-452F-91A3-CD7AAC703112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A187595A-2E8E-4842-8DA5-0A08D05A5C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21FBC840-F5F1-4CAB-B87B-4589D1B93DC9}"/>
   </bookViews>
@@ -44,12 +44,6 @@
     <t>VERSICOLOR</t>
   </si>
   <si>
-    <t>VP</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
     <t>FP</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TN</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,40 +114,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +523,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,29 +539,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -514,26 +569,26 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="12">
         <v>16</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>44</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="15">
         <v>16</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="16">
         <f>B2/(B2+D2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="16">
         <f>C2/(C2+E2)</f>
         <v>1</v>
       </c>
@@ -543,76 +598,76 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="13">
         <v>22</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="13">
         <v>34</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>23</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="17">
         <f t="shared" ref="G3:G4" si="0">B3/(B3+D3)</f>
         <v>0.88</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <f>B3/(B3+E3)</f>
         <v>0.95652173913043481</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="14">
         <v>18</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="14">
         <v>38</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="14">
         <v>21</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
         <v>0.94736842105263153</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="18">
         <f>B4/(B4+E4)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <f>SUM(F2:F4)</f>
         <v>60</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilhas/Testes de Avaliação do Classificador.xlsx
+++ b/Planilhas/Testes de Avaliação do Classificador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LabDataScience\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A187595A-2E8E-4842-8DA5-0A08D05A5C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC0FB5-C5CA-4830-8089-8AC68BFB06AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21FBC840-F5F1-4CAB-B87B-4589D1B93DC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">SETOSA </t>
   </si>
@@ -53,15 +53,6 @@
     <t>CLASSES</t>
   </si>
   <si>
-    <t>ESPECIFICIDADE (RECALL)</t>
-  </si>
-  <si>
-    <t>PRECISÃO (precision)</t>
-  </si>
-  <si>
-    <t>CASOS</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -69,13 +60,127 @@
   </si>
   <si>
     <t>TN</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>MÉTRICAS</t>
+  </si>
+  <si>
+    <r>
+      <t>SENSIBILIDADE (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PRECISÃO (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ERRO (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ACURÁCIA</t>
+  </si>
+  <si>
+    <t>FALSOS ALARMES</t>
+  </si>
+  <si>
+    <t>VPP</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>ESPECIFICIDADE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +202,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,33 +284,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -196,13 +327,44 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3ED41-B67C-4C45-857D-4B54CADC8A9B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+      <selection activeCell="H7" sqref="H7:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,141 +695,277 @@
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8">
+        <v>44</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>38</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <f>SUM(F2:F4)</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>16</v>
-      </c>
-      <c r="C2" s="12">
-        <v>44</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>16</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="20"/>
+      <c r="H9" s="24">
         <f>B2/(B2+D2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="16">
+      <c r="I9" s="24">
         <f>C2/(C2+E2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13">
-        <v>34</v>
-      </c>
-      <c r="D3" s="13">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="J9" s="14">
+        <f>2*H9*I9/(H9+I9)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="13">
-        <v>23</v>
-      </c>
-      <c r="G3" s="17">
-        <f t="shared" ref="G3:G4" si="0">B3/(B3+D3)</f>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="24">
+        <f>B3/(B3+D3)</f>
         <v>0.88</v>
       </c>
-      <c r="H3" s="17">
+      <c r="I10" s="24">
         <f>B3/(B3+E3)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14">
-        <v>38</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14">
-        <v>21</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" si="0"/>
+      <c r="J10" s="14">
+        <f t="shared" ref="J10:J11" si="0">2*H10*I10/(H10+I10)</f>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="20"/>
+      <c r="H11" s="25">
+        <f>B4/(B4+D4)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="H4" s="18">
+      <c r="I11" s="25">
         <f>B4/(B4+E4)</f>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <f>SUM(F2:F4)</f>
-        <v>60</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="H12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="15">
+        <f>(D2+E2)/(B2+C2+D2+E2)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <f>1-H13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="22">
+        <f>C2/(C2+D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="18">
+        <f>(D3+E3)/(B3+C3+D3+E3)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I14" s="19">
+        <f>1-H14</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" ref="J14:J15" si="1">C3/(C3+D3)</f>
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="18">
+        <f>(D4+E4)/(B4+C4+D4+E4)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I15" s="19">
+        <f>1-H15</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.97435897435897434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="15">
+        <f>1-J13</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <f>B2/(B2+D2)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="22">
+        <f>C2/(C2+E2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="18">
+        <f t="shared" ref="H18:H19" si="2">1-J14</f>
+        <v>8.108108108108103E-2</v>
+      </c>
+      <c r="I18" s="22">
+        <f>B3/(B3+D3)</f>
+        <v>0.88</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" ref="J18:J19" si="3">C3/(C3+E3)</f>
+        <v>0.97142857142857142</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="21">
+        <f t="shared" si="2"/>
+        <v>2.5641025641025661E-2</v>
+      </c>
+      <c r="I19" s="21">
+        <f>B4/(B4+D4)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="3"/>
+        <v>0.92682926829268297</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilhas/Testes de Avaliação do Classificador.xlsx
+++ b/Planilhas/Testes de Avaliação do Classificador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LabDataScience\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC0FB5-C5CA-4830-8089-8AC68BFB06AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77718C7A-740B-41D1-A136-94FBFB0B7D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21FBC840-F5F1-4CAB-B87B-4589D1B93DC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t xml:space="preserve">SETOSA </t>
   </si>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -342,16 +342,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +361,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +693,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J19"/>
+      <selection activeCell="G7" sqref="G7:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,30 +806,36 @@
       <c r="H5" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
+      <c r="G7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9" s="20"/>
-      <c r="H9" s="24">
+      <c r="G9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
         <f>B2/(B2+D2)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <f>C2/(C2+E2)</f>
         <v>1</v>
       </c>
@@ -832,12 +846,14 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24">
+      <c r="G10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="22">
         <f>B3/(B3+D3)</f>
         <v>0.88</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <f>B3/(B3+E3)</f>
         <v>0.95652173913043481</v>
       </c>
@@ -847,12 +863,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="20"/>
-      <c r="H11" s="25">
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23">
         <f>B4/(B4+D4)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <f>B4/(B4+E4)</f>
         <v>0.8571428571428571</v>
       </c>
@@ -862,10 +880,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="H12" s="23" t="s">
+      <c r="G12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="16" t="s">
@@ -873,48 +894,60 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="H13" s="15">
         <f>(D2+E2)/(B2+C2+D2+E2)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <f>1-H13</f>
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <f>C2/(C2+D2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="18">
+      <c r="G14" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="17">
         <f>(D3+E3)/(B3+C3+D3+E3)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f>1-H14</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <f t="shared" ref="J14:J15" si="1">C3/(C3+D3)</f>
         <v>0.91891891891891897</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H15" s="18">
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
         <f>(D4+E4)/(B4+C4+D4+E4)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <f>1-H15</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <f t="shared" si="1"/>
         <v>0.97435897435897434</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="H16" s="16" t="s">
         <v>16</v>
       </c>
@@ -925,49 +958,61 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="H17" s="15">
         <f>1-J13</f>
         <v>0</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="20">
         <f>B2/(B2+D2)</f>
         <v>1</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="20">
         <f>C2/(C2+E2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H18" s="18">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="17">
         <f t="shared" ref="H18:H19" si="2">1-J14</f>
         <v>8.108108108108103E-2</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <f>B3/(B3+D3)</f>
         <v>0.88</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="18">
         <f t="shared" ref="J18:J19" si="3">C3/(C3+E3)</f>
         <v>0.97142857142857142</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H19" s="21">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
         <f t="shared" si="2"/>
         <v>2.5641025641025661E-2</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <f>B4/(B4+D4)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="19">
         <f t="shared" si="3"/>
         <v>0.92682926829268297</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G7:J7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Planilhas/Testes de Avaliação do Classificador.xlsx
+++ b/Planilhas/Testes de Avaliação do Classificador.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LabDataScience\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77718C7A-740B-41D1-A136-94FBFB0B7D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF7B0D-F529-45FB-ABCC-93E4544FB87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21FBC840-F5F1-4CAB-B87B-4589D1B93DC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste 01 Iris Flower com KNN" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">SETOSA </t>
   </si>
@@ -175,12 +175,15 @@
   <si>
     <t>ESPECIFICIDADE</t>
   </si>
+  <si>
+    <t>Teste 01 - Iris Flower com KNN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +224,14 @@
     <font>
       <i/>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -300,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -308,7 +319,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,33 +349,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,6 +381,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3ED41-B67C-4C45-857D-4B54CADC8A9B}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J19"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,307 +725,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B4" s="7">
         <v>16</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C4" s="7">
         <v>44</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F4" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B5" s="8">
         <v>22</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C5" s="8">
         <v>34</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
         <v>18</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C6" s="9">
         <v>38</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F6" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
-        <f>SUM(F2:F4)</f>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <f>SUM(F4:F6)</f>
         <v>60</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G8" s="25" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9" s="27" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="22">
-        <f>B2/(B2+D2)</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="22">
-        <f>C2/(C2+E2)</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="14">
-        <f>2*H9*I9/(H9+I9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="G10" s="27" t="s">
+      <c r="H11" s="20">
+        <f>B4/(B4+D4)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <f>C4/(C4+E4)</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <f>2*H11*I11/(H11+I11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="G12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="22">
-        <f>B3/(B3+D3)</f>
+      <c r="H12" s="20">
+        <f>B5/(B5+D5)</f>
         <v>0.88</v>
       </c>
-      <c r="I10" s="22">
-        <f>B3/(B3+E3)</f>
+      <c r="I12" s="20">
+        <f>B5/(B5+E5)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="J10" s="14">
-        <f t="shared" ref="J10:J11" si="0">2*H10*I10/(H10+I10)</f>
+      <c r="J12" s="13">
+        <f t="shared" ref="J12:J13" si="0">2*H12*I12/(H12+I12)</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23">
-        <f>B4/(B4+D4)</f>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <f>B6/(B6+D6)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="I11" s="23">
-        <f>B4/(B4+E4)</f>
+      <c r="I13" s="21">
+        <f>B6/(B6+E6)</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="G12" s="25" t="s">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="G14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J14" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="27" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="15">
-        <f>(D2+E2)/(B2+C2+D2+E2)</f>
+      <c r="H15" s="14">
+        <f>(D4+E4)/(B4+C4+D4+E4)</f>
         <v>0</v>
-      </c>
-      <c r="I13" s="20">
-        <f>1-H13</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="20">
-        <f>C2/(C2+D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="17">
-        <f>(D3+E3)/(B3+C3+D3+E3)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I14" s="18">
-        <f>1-H14</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" ref="J14:J15" si="1">C3/(C3+D3)</f>
-        <v>0.91891891891891897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17">
-        <f>(D4+E4)/(B4+C4+D4+E4)</f>
-        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I15" s="18">
         <f>1-H15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <f>C4/(C4+D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="15">
+        <f>(D5+E5)/(B5+C5+D5+E5)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I16" s="16">
+        <f>1-H16</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="16">
+        <f t="shared" ref="J16:J17" si="1">C5/(C5+D5)</f>
+        <v>0.91891891891891897</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <f>(D6+E6)/(B6+C6+D6+E6)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I17" s="16">
+        <f>1-H17</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J17" s="16">
         <f t="shared" si="1"/>
         <v>0.97435897435897434</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="25" t="s">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J18" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="27" t="s">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="15">
-        <f>1-J13</f>
+      <c r="H19" s="14">
+        <f>1-J15</f>
         <v>0</v>
       </c>
-      <c r="I17" s="20">
-        <f>B2/(B2+D2)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="20">
-        <f>C2/(C2+E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="27" t="s">
+      <c r="I19" s="18">
+        <f>B4/(B4+D4)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <f>C4/(C4+E4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="17">
-        <f t="shared" ref="H18:H19" si="2">1-J14</f>
+      <c r="H20" s="15">
+        <f t="shared" ref="H20:H21" si="2">1-J16</f>
         <v>8.108108108108103E-2</v>
       </c>
-      <c r="I18" s="20">
-        <f>B3/(B3+D3)</f>
+      <c r="I20" s="18">
+        <f>B5/(B5+D5)</f>
         <v>0.88</v>
       </c>
-      <c r="J18" s="18">
-        <f t="shared" ref="J18:J19" si="3">C3/(C3+E3)</f>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20:J21" si="3">C5/(C5+E5)</f>
         <v>0.97142857142857142</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
         <f t="shared" si="2"/>
         <v>2.5641025641025661E-2</v>
       </c>
-      <c r="I19" s="19">
-        <f>B4/(B4+D4)</f>
+      <c r="I21" s="17">
+        <f>B6/(B6+D6)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J21" s="17">
         <f t="shared" si="3"/>
         <v>0.92682926829268297</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planilhas/Testes de Avaliação do Classificador.xlsx
+++ b/Planilhas/Testes de Avaliação do Classificador.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LabDataScience\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF7B0D-F529-45FB-ABCC-93E4544FB87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B773A565-625A-4051-A560-80327D816DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21FBC840-F5F1-4CAB-B87B-4589D1B93DC9}"/>
+    <workbookView xWindow="-16320" yWindow="-9165" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="1" xr2:uid="{21FBC840-F5F1-4CAB-B87B-4589D1B93DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste 01 Iris Flower com KNN" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste 02" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t xml:space="preserve">SETOSA </t>
   </si>
@@ -178,12 +179,225 @@
   <si>
     <t>Teste 01 - Iris Flower com KNN</t>
   </si>
+  <si>
+    <t>0.15436048</t>
+  </si>
+  <si>
+    <t>0.28110384</t>
+  </si>
+  <si>
+    <t>0.21934963</t>
+  </si>
+  <si>
+    <t>0.21008886</t>
+  </si>
+  <si>
+    <t>0.31046709</t>
+  </si>
+  <si>
+    <t>0.43183757</t>
+  </si>
+  <si>
+    <t>Eritema</t>
+  </si>
+  <si>
+    <t>Escamação</t>
+  </si>
+  <si>
+    <t>Bordas definidas</t>
+  </si>
+  <si>
+    <t>Prurido</t>
+  </si>
+  <si>
+    <t>Fenômeno de Koebner</t>
+  </si>
+  <si>
+    <t>Pápulas poligonais</t>
+  </si>
+  <si>
+    <t>Pápulas foliculares</t>
+  </si>
+  <si>
+    <t>Acometimento da mucosa oral</t>
+  </si>
+  <si>
+    <t>Acometimento do joelho e cotovelo</t>
+  </si>
+  <si>
+    <t>Acometimento do couro cabeludo</t>
+  </si>
+  <si>
+    <t>Histórico familiar (0-não ou 1-sim)</t>
+  </si>
+  <si>
+    <t>Incontinência de melanina</t>
+  </si>
+  <si>
+    <t>Infiltrado eosinofílico</t>
+  </si>
+  <si>
+    <t>Infiltrado de polimorfonucleares</t>
+  </si>
+  <si>
+    <t>Fibrose da derme papilar</t>
+  </si>
+  <si>
+    <t>Exocitose</t>
+  </si>
+  <si>
+    <t>Acantose</t>
+  </si>
+  <si>
+    <t>Hiperceratose</t>
+  </si>
+  <si>
+    <t>Paraceratose</t>
+  </si>
+  <si>
+    <t>Baqueteamento das cristas epiteliais</t>
+  </si>
+  <si>
+    <t>Alongamento das cristas epiteliais</t>
+  </si>
+  <si>
+    <t>Afinamento da epiderme suprapapilar</t>
+  </si>
+  <si>
+    <t>Pústula espongiforme</t>
+  </si>
+  <si>
+    <t>Microabscesso de Munro</t>
+  </si>
+  <si>
+    <t>Hipergranulose focal</t>
+  </si>
+  <si>
+    <t>Agranulose</t>
+  </si>
+  <si>
+    <t>Vacuolização e dano da camada basal</t>
+  </si>
+  <si>
+    <t>Espongiose</t>
+  </si>
+  <si>
+    <t>Aparência de dente de serra</t>
+  </si>
+  <si>
+    <t>Tampão córneo</t>
+  </si>
+  <si>
+    <t>Paraceratose perifolicular</t>
+  </si>
+  <si>
+    <t>Infiltrado inflamatório mononuclear</t>
+  </si>
+  <si>
+    <t>Faixa de infiltrado</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>0.16409712</t>
+  </si>
+  <si>
+    <t>0.51290487</t>
+  </si>
+  <si>
+    <t>0.48006195</t>
+  </si>
+  <si>
+    <t>0.35963136</t>
+  </si>
+  <si>
+    <t>0.13122709</t>
+  </si>
+  <si>
+    <t>0.44047892</t>
+  </si>
+  <si>
+    <t>0.07758765</t>
+  </si>
+  <si>
+    <t>0.39039045</t>
+  </si>
+  <si>
+    <t>0.39436812</t>
+  </si>
+  <si>
+    <t>0.40806916</t>
+  </si>
+  <si>
+    <t>0.08310246</t>
+  </si>
+  <si>
+    <t>0.04255245</t>
+  </si>
+  <si>
+    <t>0.16486873</t>
+  </si>
+  <si>
+    <t>0.56258663</t>
+  </si>
+  <si>
+    <t>0.59375093</t>
+  </si>
+  <si>
+    <t>0.58523291</t>
+  </si>
+  <si>
+    <t>0.17387056</t>
+  </si>
+  <si>
+    <t>0.26298886</t>
+  </si>
+  <si>
+    <t>0.48676007</t>
+  </si>
+  <si>
+    <t>0.19769175</t>
+  </si>
+  <si>
+    <t>0.54391389</t>
+  </si>
+  <si>
+    <t>0.37511911</t>
+  </si>
+  <si>
+    <t>0.45388032</t>
+  </si>
+  <si>
+    <t>0.10577384</t>
+  </si>
+  <si>
+    <t>0.14905342</t>
+  </si>
+  <si>
+    <t>0.07813369</t>
+  </si>
+  <si>
+    <t>0.42218653</t>
+  </si>
+  <si>
+    <t>0.13709238</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>Variáveis de entrada</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +451,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -388,6 +619,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3ED41-B67C-4C45-857D-4B54CADC8A9B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
@@ -1040,4 +1291,524 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B0B055-1B41-48E0-9CE7-1841AEF6C400}">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>17</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>12</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>31</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>29</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>10</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>33</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>30</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>18</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>22</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>25</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>3</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>23</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>2</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>4</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>9</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>27</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>13</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>14</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>15</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>32</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>5</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>11</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>28</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>8</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>24</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>7</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>26</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>19</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>21</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>20</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="32"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="32"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="32"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>